--- a/output_Nikola Vučević.xlsx
+++ b/output_Nikola Vučević.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date_x</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -701,8 +701,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1731888000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -870,8 +872,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1731801600</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -1037,8 +1041,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1731628800</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1206,8 +1212,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1731456000</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1375,8 +1383,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1731283200</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1542,8 +1552,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1731110400</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1711,8 +1723,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1730937600</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1878,8 +1892,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1730851200</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2047,8 +2063,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1730246400</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2214,8 +2232,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1730073600</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2383,8 +2403,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1729900800</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2550,8 +2572,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1729814400</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2719,8 +2743,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1712793600</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2758,30 +2784,20 @@
       <c r="K14" t="n">
         <v>0.333</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>11</v>
@@ -2789,10 +2805,8 @@
       <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S14" t="n">
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -2800,23 +2814,17 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V14" t="n">
+        <v>3</v>
       </c>
       <c r="W14" t="n">
         <v>27</v>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="X14" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -2908,8 +2916,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1712620800</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2945,28 +2955,20 @@
       <c r="K15" t="n">
         <v>0.667</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
@@ -2974,10 +2976,8 @@
       <c r="R15" t="n">
         <v>1</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S15" t="n">
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -2985,23 +2985,17 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V15" t="n">
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>26</v>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>22.5</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="X15" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-14</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -3093,8 +3087,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1712448000</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3132,30 +3128,20 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>.857</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -3163,10 +3149,8 @@
       <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S16" t="n">
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -3174,23 +3158,17 @@
       <c r="U16" t="n">
         <v>2</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V16" t="n">
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>8</v>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="X16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-14</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -3282,8 +3260,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1712275200</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3319,28 +3299,20 @@
       <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -3348,10 +3320,8 @@
       <c r="R17" t="n">
         <v>6</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S17" t="n">
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -3359,23 +3329,17 @@
       <c r="U17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V17" t="n">
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>16</v>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -3467,8 +3431,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1711929600</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3504,28 +3470,20 @@
       <c r="K18" t="n">
         <v>0.5</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13</v>
       </c>
       <c r="Q18" t="n">
         <v>14</v>
@@ -3533,10 +3491,8 @@
       <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S18" t="n">
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -3544,23 +3500,17 @@
       <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V18" t="n">
+        <v>4</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="X18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-12</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -3652,8 +3602,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1711843200</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3691,30 +3643,20 @@
       <c r="K19" t="n">
         <v>0.333</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
         <v>8</v>
@@ -3722,10 +3664,8 @@
       <c r="R19" t="n">
         <v>6</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S19" t="n">
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3733,23 +3673,17 @@
       <c r="U19" t="n">
         <v>2</v>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V19" t="n">
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>19</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>17.2</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -3841,8 +3775,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1711497600</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3878,30 +3814,20 @@
       <c r="K20" t="n">
         <v>0.25</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9</v>
       </c>
       <c r="Q20" t="n">
         <v>12</v>
@@ -3909,10 +3835,8 @@
       <c r="R20" t="n">
         <v>2</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S20" t="n">
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -3920,23 +3844,17 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V20" t="n">
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>22</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="X20" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -4028,8 +3946,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1711324800</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -4065,30 +3985,20 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13</v>
       </c>
       <c r="Q21" t="n">
         <v>16</v>
@@ -4096,10 +4006,8 @@
       <c r="R21" t="n">
         <v>3</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S21" t="n">
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>3</v>
@@ -4107,23 +4015,17 @@
       <c r="U21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V21" t="n">
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>9</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="X21" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-8</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -4215,8 +4117,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1711152000</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -4252,28 +4156,20 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -4281,10 +4177,8 @@
       <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -4292,23 +4186,17 @@
       <c r="U22" t="n">
         <v>1</v>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V22" t="n">
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>14</v>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X22" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-6</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -4400,8 +4288,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1710979200</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4439,30 +4329,20 @@
       <c r="K23" t="n">
         <v>0.2</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
         <v>14</v>
@@ -4470,10 +4350,8 @@
       <c r="R23" t="n">
         <v>6</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S23" t="n">
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -4481,23 +4359,17 @@
       <c r="U23" t="n">
         <v>1</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V23" t="n">
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>16</v>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>16.1</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X23" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-7</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -4589,8 +4461,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1710720000</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -4626,30 +4500,20 @@
       <c r="K24" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>.000</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>9</v>
@@ -4657,10 +4521,8 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -4668,23 +4530,17 @@
       <c r="U24" t="n">
         <v>3</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V24" t="n">
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>22</v>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>14.9</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="X24" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-2</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -4776,8 +4632,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1710547200</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -4813,30 +4671,20 @@
       <c r="K25" t="n">
         <v>0.333</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -4844,10 +4692,8 @@
       <c r="R25" t="n">
         <v>2</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -4855,23 +4701,17 @@
       <c r="U25" t="n">
         <v>3</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V25" t="n">
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>29</v>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>24.2</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="X25" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -4963,8 +4803,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1710374400</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -5000,30 +4842,20 @@
       <c r="K26" t="n">
         <v>0.5</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>6</v>
@@ -5031,10 +4863,8 @@
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S26" t="n">
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -5042,23 +4872,17 @@
       <c r="U26" t="n">
         <v>1</v>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V26" t="n">
+        <v>2</v>
       </c>
       <c r="W26" t="n">
         <v>19</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>17.1</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="X26" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-22</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5150,8 +4974,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1710288000</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5189,28 +5015,20 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>11</v>
       </c>
       <c r="Q27" t="n">
         <v>12</v>
@@ -5218,10 +5036,8 @@
       <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -5229,23 +5045,17 @@
       <c r="U27" t="n">
         <v>1</v>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V27" t="n">
+        <v>4</v>
       </c>
       <c r="W27" t="n">
         <v>12</v>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="X27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -5337,8 +5147,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1710115200</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -5374,28 +5186,20 @@
       <c r="K28" t="n">
         <v>0.25</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
         <v>6</v>
@@ -5403,10 +5207,8 @@
       <c r="R28" t="n">
         <v>2</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S28" t="n">
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -5414,23 +5216,17 @@
       <c r="U28" t="n">
         <v>3</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V28" t="n">
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>13</v>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-22</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -5522,8 +5318,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1709942400</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5561,30 +5359,20 @@
       <c r="K29" t="n">
         <v>0.5</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
         <v>11</v>
@@ -5592,10 +5380,8 @@
       <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S29" t="n">
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -5603,23 +5389,17 @@
       <c r="U29" t="n">
         <v>1</v>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V29" t="n">
+        <v>1</v>
       </c>
       <c r="W29" t="n">
         <v>22</v>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-11</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -5711,8 +5491,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1709769600</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5750,30 +5532,20 @@
       <c r="K30" t="n">
         <v>0.5</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9</v>
       </c>
       <c r="Q30" t="n">
         <v>11</v>
@@ -5781,10 +5553,8 @@
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S30" t="n">
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -5792,23 +5562,17 @@
       <c r="U30" t="n">
         <v>4</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V30" t="n">
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>33</v>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>25.3</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X30" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-7</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -5900,8 +5664,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1709510400</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5939,28 +5705,20 @@
       <c r="K31" t="n">
         <v>0.4</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -5968,10 +5726,8 @@
       <c r="R31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S31" t="n">
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -5979,23 +5735,17 @@
       <c r="U31" t="n">
         <v>2</v>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V31" t="n">
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>10</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-5</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -6087,8 +5837,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1709251200</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -6124,28 +5876,20 @@
       <c r="K32" t="n">
         <v>0.333</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7</v>
       </c>
       <c r="Q32" t="n">
         <v>9</v>
@@ -6153,10 +5897,8 @@
       <c r="R32" t="n">
         <v>3</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S32" t="n">
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -6164,23 +5906,17 @@
       <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V32" t="n">
+        <v>3</v>
       </c>
       <c r="W32" t="n">
         <v>17</v>
       </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="X32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-19</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -6272,8 +6008,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1709078400</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -6309,30 +6047,20 @@
       <c r="K33" t="n">
         <v>0.333</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -6340,10 +6068,8 @@
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S33" t="n">
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>2</v>
@@ -6351,23 +6077,17 @@
       <c r="U33" t="n">
         <v>4</v>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="V33" t="n">
+        <v>6</v>
       </c>
       <c r="W33" t="n">
         <v>24</v>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>17.9</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="X33" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -6459,8 +6179,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1708992000</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -6496,30 +6218,20 @@
       <c r="K34" t="n">
         <v>0.143</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>.000</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -6527,10 +6239,8 @@
       <c r="R34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S34" t="n">
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>1</v>
@@ -6538,23 +6248,17 @@
       <c r="U34" t="n">
         <v>1</v>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V34" t="n">
+        <v>4</v>
       </c>
       <c r="W34" t="n">
         <v>25</v>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
+      <c r="X34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -6646,8 +6350,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1708560000</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -6683,30 +6389,20 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9</v>
       </c>
       <c r="Q35" t="n">
         <v>14</v>
@@ -6714,10 +6410,8 @@
       <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S35" t="n">
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -6725,23 +6419,17 @@
       <c r="U35" t="n">
         <v>4</v>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V35" t="n">
+        <v>2</v>
       </c>
       <c r="W35" t="n">
         <v>22</v>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
+      <c r="X35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-18</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -6833,8 +6521,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1707868800</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6872,28 +6562,20 @@
       <c r="K36" t="n">
         <v>0.2</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
         <v>8</v>
@@ -6901,10 +6583,8 @@
       <c r="R36" t="n">
         <v>1</v>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S36" t="n">
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -6912,23 +6592,17 @@
       <c r="U36" t="n">
         <v>2</v>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V36" t="n">
+        <v>4</v>
       </c>
       <c r="W36" t="n">
         <v>9</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-11</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -7020,8 +6694,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1707696000</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -7059,30 +6735,20 @@
       <c r="K37" t="n">
         <v>0.5</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L37" t="n">
+        <v>7</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9</v>
       </c>
       <c r="Q37" t="n">
         <v>11</v>
@@ -7090,10 +6756,8 @@
       <c r="R37" t="n">
         <v>2</v>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S37" t="n">
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -7101,23 +6765,17 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V37" t="n">
+        <v>3</v>
       </c>
       <c r="W37" t="n">
         <v>24</v>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>20.5</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X37" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -7209,8 +6867,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1707523200</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -7248,30 +6908,20 @@
       <c r="K38" t="n">
         <v>0.143</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>8</v>
       </c>
       <c r="Q38" t="n">
         <v>17</v>
@@ -7279,10 +6929,8 @@
       <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S38" t="n">
+        <v>3</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -7290,23 +6938,17 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V38" t="n">
+        <v>3</v>
       </c>
       <c r="W38" t="n">
         <v>26</v>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>26.9</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X38" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -7398,8 +7040,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1707350400</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -7437,30 +7081,20 @@
       <c r="K39" t="n">
         <v>0.429</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
       </c>
       <c r="Q39" t="n">
         <v>10</v>
@@ -7468,10 +7102,8 @@
       <c r="R39" t="n">
         <v>5</v>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S39" t="n">
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>2</v>
@@ -7479,23 +7111,17 @@
       <c r="U39" t="n">
         <v>3</v>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V39" t="n">
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>20</v>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>14.8</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="X39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>19</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -7587,8 +7213,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1707177600</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -7624,30 +7252,20 @@
       <c r="K40" t="n">
         <v>0.5</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
         <v>6</v>
@@ -7655,10 +7273,8 @@
       <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S40" t="n">
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>4</v>
@@ -7666,23 +7282,17 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V40" t="n">
+        <v>5</v>
       </c>
       <c r="W40" t="n">
         <v>24</v>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>21.2</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="X40" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -7774,8 +7384,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1706918400</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -7811,30 +7423,20 @@
       <c r="K41" t="n">
         <v>0.25</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
       </c>
       <c r="Q41" t="n">
         <v>12</v>
@@ -7842,10 +7444,8 @@
       <c r="R41" t="n">
         <v>3</v>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -7853,23 +7453,17 @@
       <c r="U41" t="n">
         <v>2</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V41" t="n">
+        <v>2</v>
       </c>
       <c r="W41" t="n">
         <v>24</v>
       </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="X41" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-3</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -7961,8 +7555,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1706572800</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -7998,30 +7594,20 @@
       <c r="K42" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
         <v>9</v>
@@ -8029,10 +7615,8 @@
       <c r="R42" t="n">
         <v>3</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S42" t="n">
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -8040,23 +7624,17 @@
       <c r="U42" t="n">
         <v>1</v>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V42" t="n">
+        <v>2</v>
       </c>
       <c r="W42" t="n">
         <v>14</v>
       </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X42" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-11</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -8148,8 +7726,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1706400000</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8187,30 +7767,20 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7</v>
       </c>
       <c r="Q43" t="n">
         <v>7</v>
@@ -8218,10 +7788,8 @@
       <c r="R43" t="n">
         <v>3</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>3</v>
@@ -8229,23 +7797,17 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V43" t="n">
+        <v>2</v>
       </c>
       <c r="W43" t="n">
         <v>14</v>
       </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="X43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>4</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -8337,8 +7899,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1706140800</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8376,28 +7940,20 @@
       <c r="K44" t="n">
         <v>0.667</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>8</v>
@@ -8405,10 +7961,8 @@
       <c r="R44" t="n">
         <v>1</v>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S44" t="n">
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -8416,23 +7970,17 @@
       <c r="U44" t="n">
         <v>2</v>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V44" t="n">
+        <v>2</v>
       </c>
       <c r="W44" t="n">
         <v>20</v>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>17.4</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X44" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-7</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -8524,8 +8072,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1705881600</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8563,28 +8113,20 @@
       <c r="K45" t="n">
         <v>0.2</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="O45" t="n">
+        <v>5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>12</v>
       </c>
       <c r="Q45" t="n">
         <v>17</v>
@@ -8592,10 +8134,8 @@
       <c r="R45" t="n">
         <v>7</v>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S45" t="n">
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -8603,23 +8143,17 @@
       <c r="U45" t="n">
         <v>1</v>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V45" t="n">
+        <v>2</v>
       </c>
       <c r="W45" t="n">
         <v>19</v>
       </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="X45" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -8711,8 +8245,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1705708800</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -8748,28 +8284,20 @@
       <c r="K46" t="n">
         <v>0.333</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9</v>
       </c>
       <c r="Q46" t="n">
         <v>11</v>
@@ -8777,10 +8305,8 @@
       <c r="R46" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S46" t="n">
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -8788,23 +8314,17 @@
       <c r="U46" t="n">
         <v>2</v>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V46" t="n">
+        <v>3</v>
       </c>
       <c r="W46" t="n">
         <v>11</v>
       </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="X46" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
@@ -8896,8 +8416,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1705536000</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8935,28 +8457,20 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="O47" t="n">
+        <v>5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>9</v>
       </c>
       <c r="Q47" t="n">
         <v>14</v>
@@ -8964,10 +8478,8 @@
       <c r="R47" t="n">
         <v>7</v>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S47" t="n">
+        <v>2</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -8975,23 +8487,17 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V47" t="n">
+        <v>1</v>
       </c>
       <c r="W47" t="n">
         <v>24</v>
       </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>28.2</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="X47" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>23</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -9083,8 +8589,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1705276800</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -9122,28 +8630,20 @@
       <c r="K48" t="n">
         <v>0.143</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
       </c>
       <c r="Q48" t="n">
         <v>10</v>
@@ -9151,10 +8651,8 @@
       <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S48" t="n">
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -9162,23 +8660,17 @@
       <c r="U48" t="n">
         <v>2</v>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V48" t="n">
+        <v>3</v>
       </c>
       <c r="W48" t="n">
         <v>17</v>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="X48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-8</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -9270,8 +8762,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1705104000</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -9309,30 +8803,20 @@
       <c r="K49" t="n">
         <v>0.4</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>13</v>
       </c>
       <c r="Q49" t="n">
         <v>16</v>
@@ -9340,10 +8824,8 @@
       <c r="R49" t="n">
         <v>5</v>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S49" t="n">
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>3</v>
@@ -9351,23 +8833,17 @@
       <c r="U49" t="n">
         <v>1</v>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V49" t="n">
+        <v>2</v>
       </c>
       <c r="W49" t="n">
         <v>24</v>
       </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>25.5</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>13</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -9459,8 +8935,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1705017600</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -9496,28 +8974,20 @@
       <c r="K50" t="n">
         <v>0.4</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>7</v>
@@ -9525,10 +8995,8 @@
       <c r="R50" t="n">
         <v>2</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S50" t="n">
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -9536,23 +9004,17 @@
       <c r="U50" t="n">
         <v>3</v>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V50" t="n">
+        <v>1</v>
       </c>
       <c r="W50" t="n">
         <v>14</v>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X50" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-7</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -9644,8 +9106,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1704844800</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -9681,28 +9145,20 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>12</v>
       </c>
       <c r="Q51" t="n">
         <v>15</v>
@@ -9710,10 +9166,8 @@
       <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -9721,23 +9175,17 @@
       <c r="U51" t="n">
         <v>0</v>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V51" t="n">
+        <v>4</v>
       </c>
       <c r="W51" t="n">
         <v>18</v>
       </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="X51" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>16</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -9829,8 +9277,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1703289600</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -9866,30 +9316,20 @@
       <c r="K52" t="n">
         <v>0.4</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>11</v>
       </c>
       <c r="Q52" t="n">
         <v>12</v>
@@ -9897,10 +9337,8 @@
       <c r="R52" t="n">
         <v>4</v>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -9908,23 +9346,17 @@
       <c r="U52" t="n">
         <v>1</v>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V52" t="n">
+        <v>1</v>
       </c>
       <c r="W52" t="n">
         <v>20</v>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>22.2</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="X52" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-12</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -10016,8 +9448,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1703116800</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -10053,28 +9487,20 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
@@ -10082,10 +9508,8 @@
       <c r="R53" t="n">
         <v>3</v>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S53" t="n">
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -10093,23 +9517,17 @@
       <c r="U53" t="n">
         <v>2</v>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V53" t="n">
+        <v>2</v>
       </c>
       <c r="W53" t="n">
         <v>16</v>
       </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X53" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
@@ -10201,8 +9619,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1703030400</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -10238,30 +9658,20 @@
       <c r="K54" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9</v>
       </c>
       <c r="Q54" t="n">
         <v>10</v>
@@ -10269,10 +9679,8 @@
       <c r="R54" t="n">
         <v>2</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S54" t="n">
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -10280,23 +9688,17 @@
       <c r="U54" t="n">
         <v>1</v>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V54" t="n">
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>13</v>
       </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X54" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>6</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -10388,8 +9790,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1702857600</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -10427,28 +9831,20 @@
       <c r="K55" t="n">
         <v>0.429</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
         <v>8</v>
@@ -10456,10 +9852,8 @@
       <c r="R55" t="n">
         <v>4</v>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S55" t="n">
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>2</v>
@@ -10467,23 +9861,17 @@
       <c r="U55" t="n">
         <v>2</v>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V55" t="n">
+        <v>4</v>
       </c>
       <c r="W55" t="n">
         <v>23</v>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>18.6</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="X55" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-4</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
@@ -10575,8 +9963,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1702684800</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -10614,30 +10004,20 @@
       <c r="K56" t="n">
         <v>0.25</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>.833</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7</v>
       </c>
       <c r="Q56" t="n">
         <v>11</v>
@@ -10645,10 +10025,8 @@
       <c r="R56" t="n">
         <v>3</v>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -10656,23 +10034,17 @@
       <c r="U56" t="n">
         <v>2</v>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V56" t="n">
+        <v>1</v>
       </c>
       <c r="W56" t="n">
         <v>12</v>
       </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X56" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-5</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -10764,8 +10136,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1702512000</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -10803,30 +10177,20 @@
       <c r="K57" t="n">
         <v>0.4</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
       </c>
       <c r="Q57" t="n">
         <v>12</v>
@@ -10834,10 +10198,8 @@
       <c r="R57" t="n">
         <v>7</v>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S57" t="n">
+        <v>2</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -10845,23 +10207,17 @@
       <c r="U57" t="n">
         <v>0</v>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V57" t="n">
+        <v>2</v>
       </c>
       <c r="W57" t="n">
         <v>24</v>
       </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>23.8</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X57" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>12</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -10953,8 +10309,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1702339200</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -10990,30 +10348,20 @@
       <c r="K58" t="n">
         <v>0.25</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>12</v>
       </c>
       <c r="Q58" t="n">
         <v>16</v>
@@ -11021,10 +10369,8 @@
       <c r="R58" t="n">
         <v>5</v>
       </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>2</v>
@@ -11032,23 +10378,17 @@
       <c r="U58" t="n">
         <v>3</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V58" t="n">
+        <v>1</v>
       </c>
       <c r="W58" t="n">
         <v>26</v>
       </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X58" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-5</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -11140,8 +10480,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1702252800</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -11179,28 +10521,20 @@
       <c r="K59" t="n">
         <v>0.4</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9</v>
       </c>
       <c r="Q59" t="n">
         <v>10</v>
@@ -11208,10 +10542,8 @@
       <c r="R59" t="n">
         <v>5</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S59" t="n">
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -11219,23 +10551,17 @@
       <c r="U59" t="n">
         <v>1</v>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V59" t="n">
+        <v>5</v>
       </c>
       <c r="W59" t="n">
         <v>14</v>
       </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>10.8</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="X59" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-2</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
@@ -11327,8 +10653,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1701993600</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -11366,30 +10694,20 @@
       <c r="K60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6</v>
       </c>
       <c r="Q60" t="n">
         <v>16</v>
@@ -11397,10 +10715,8 @@
       <c r="R60" t="n">
         <v>2</v>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S60" t="n">
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -11408,23 +10724,17 @@
       <c r="U60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V60" t="n">
+        <v>2</v>
       </c>
       <c r="W60" t="n">
         <v>21</v>
       </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>19.3</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="X60" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>15</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -11516,8 +10826,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1701302400</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -11553,30 +10865,20 @@
       <c r="K61" t="n">
         <v>0.5</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>.833</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>6</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>9</v>
       </c>
       <c r="Q61" t="n">
         <v>10</v>
@@ -11584,10 +10886,8 @@
       <c r="R61" t="n">
         <v>6</v>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S61" t="n">
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -11595,23 +10895,17 @@
       <c r="U61" t="n">
         <v>4</v>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V61" t="n">
+        <v>2</v>
       </c>
       <c r="W61" t="n">
         <v>29</v>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X61" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-6</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
@@ -11703,8 +10997,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1701129600</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -11742,28 +11038,20 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8</v>
       </c>
       <c r="Q62" t="n">
         <v>8</v>
@@ -11771,10 +11059,8 @@
       <c r="R62" t="n">
         <v>2</v>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S62" t="n">
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>1</v>
@@ -11782,23 +11068,17 @@
       <c r="U62" t="n">
         <v>1</v>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V62" t="n">
+        <v>1</v>
       </c>
       <c r="W62" t="n">
         <v>8</v>
       </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
+      <c r="X62" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-26</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
@@ -11890,8 +11170,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1700784000</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -11929,28 +11211,20 @@
       <c r="K63" t="n">
         <v>0.5</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8</v>
       </c>
       <c r="Q63" t="n">
         <v>8</v>
@@ -11958,10 +11232,8 @@
       <c r="R63" t="n">
         <v>5</v>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -11969,23 +11241,17 @@
       <c r="U63" t="n">
         <v>1</v>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V63" t="n">
+        <v>3</v>
       </c>
       <c r="W63" t="n">
         <v>9</v>
       </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="X63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-4</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
@@ -12077,8 +11343,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1700611200</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -12116,30 +11384,20 @@
       <c r="K64" t="n">
         <v>0.4</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7</v>
       </c>
       <c r="Q64" t="n">
         <v>12</v>
@@ -12147,10 +11405,8 @@
       <c r="R64" t="n">
         <v>3</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S64" t="n">
+        <v>2</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -12158,23 +11414,17 @@
       <c r="U64" t="n">
         <v>1</v>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V64" t="n">
+        <v>4</v>
       </c>
       <c r="W64" t="n">
         <v>16</v>
       </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>16.4</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="X64" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-3</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -12266,8 +11516,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1700438400</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -12303,30 +11555,20 @@
       <c r="K65" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>6</v>
       </c>
       <c r="Q65" t="n">
         <v>8</v>
@@ -12334,10 +11576,8 @@
       <c r="R65" t="n">
         <v>2</v>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -12345,23 +11585,17 @@
       <c r="U65" t="n">
         <v>2</v>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V65" t="n">
+        <v>4</v>
       </c>
       <c r="W65" t="n">
         <v>18</v>
       </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>10.6</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="X65" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-22</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -12453,8 +11687,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1700265600</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -12490,28 +11726,20 @@
       <c r="K66" t="n">
         <v>0.2</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>7</v>
       </c>
       <c r="Q66" t="n">
         <v>8</v>
@@ -12519,10 +11747,8 @@
       <c r="R66" t="n">
         <v>0</v>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>1</v>
@@ -12530,23 +11756,17 @@
       <c r="U66" t="n">
         <v>2</v>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V66" t="n">
+        <v>2</v>
       </c>
       <c r="W66" t="n">
         <v>15</v>
       </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X66" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-5</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
@@ -12638,8 +11858,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1700179200</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -12675,30 +11897,20 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7</v>
       </c>
       <c r="Q67" t="n">
         <v>10</v>
@@ -12706,10 +11918,8 @@
       <c r="R67" t="n">
         <v>6</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S67" t="n">
+        <v>0</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -12717,23 +11927,17 @@
       <c r="U67" t="n">
         <v>1</v>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V67" t="n">
+        <v>4</v>
       </c>
       <c r="W67" t="n">
         <v>10</v>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="X67" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-4</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -12825,8 +12029,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>1700006400</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -12862,30 +12068,20 @@
       <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>6</v>
       </c>
       <c r="Q68" t="n">
         <v>9</v>
@@ -12893,10 +12089,8 @@
       <c r="R68" t="n">
         <v>3</v>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -12904,23 +12098,17 @@
       <c r="U68" t="n">
         <v>5</v>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V68" t="n">
+        <v>4</v>
       </c>
       <c r="W68" t="n">
         <v>17</v>
       </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="X68" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>4</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -13012,8 +12200,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1699833600</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -13051,30 +12241,20 @@
       <c r="K69" t="n">
         <v>0.286</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O69" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" t="n">
+        <v>6</v>
       </c>
       <c r="Q69" t="n">
         <v>12</v>
@@ -13082,10 +12262,8 @@
       <c r="R69" t="n">
         <v>5</v>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S69" t="n">
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -13093,23 +12271,17 @@
       <c r="U69" t="n">
         <v>1</v>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V69" t="n">
+        <v>5</v>
       </c>
       <c r="W69" t="n">
         <v>26</v>
       </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>21.4</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="X69" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-1</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
@@ -13201,8 +12373,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1699747200</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -13238,30 +12412,20 @@
       <c r="K70" t="n">
         <v>0.429</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" t="n">
+        <v>10</v>
       </c>
       <c r="Q70" t="n">
         <v>12</v>
@@ -13269,10 +12433,8 @@
       <c r="R70" t="n">
         <v>4</v>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S70" t="n">
+        <v>2</v>
       </c>
       <c r="T70" t="n">
         <v>1</v>
@@ -13280,23 +12442,17 @@
       <c r="U70" t="n">
         <v>1</v>
       </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V70" t="n">
+        <v>2</v>
       </c>
       <c r="W70" t="n">
         <v>21</v>
       </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X70" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>6</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
@@ -13388,8 +12544,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>1699401600</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -13425,30 +12583,20 @@
       <c r="K71" t="n">
         <v>0.4</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
       </c>
       <c r="Q71" t="n">
         <v>6</v>
@@ -13456,10 +12604,8 @@
       <c r="R71" t="n">
         <v>3</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
@@ -13467,23 +12613,17 @@
       <c r="U71" t="n">
         <v>2</v>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V71" t="n">
+        <v>5</v>
       </c>
       <c r="W71" t="n">
         <v>26</v>
       </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>19.1</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
+      <c r="X71" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>-16</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
@@ -13575,8 +12715,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>1699056000</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -13614,30 +12756,20 @@
       <c r="K72" t="n">
         <v>0.5</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
         <v>7</v>
@@ -13645,10 +12777,8 @@
       <c r="R72" t="n">
         <v>3</v>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S72" t="n">
+        <v>0</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
@@ -13656,23 +12786,17 @@
       <c r="U72" t="n">
         <v>2</v>
       </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V72" t="n">
+        <v>3</v>
       </c>
       <c r="W72" t="n">
         <v>19</v>
       </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>-27</t>
-        </is>
+      <c r="X72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-27</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
@@ -13764,8 +12888,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1698796800</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -13803,28 +12929,20 @@
       <c r="K73" t="n">
         <v>0.333</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="O73" t="n">
+        <v>5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>15</v>
       </c>
       <c r="Q73" t="n">
         <v>20</v>
@@ -13832,10 +12950,8 @@
       <c r="R73" t="n">
         <v>1</v>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S73" t="n">
+        <v>2</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -13843,23 +12959,17 @@
       <c r="U73" t="n">
         <v>3</v>
       </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V73" t="n">
+        <v>2</v>
       </c>
       <c r="W73" t="n">
         <v>21</v>
       </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X73" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>-6</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
@@ -13951,8 +13061,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>1698624000</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -13990,30 +13102,20 @@
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>6</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>12</v>
       </c>
       <c r="Q74" t="n">
         <v>17</v>
@@ -14021,10 +13123,8 @@
       <c r="R74" t="n">
         <v>3</v>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
@@ -14032,23 +13132,17 @@
       <c r="U74" t="n">
         <v>1</v>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V74" t="n">
+        <v>3</v>
       </c>
       <c r="W74" t="n">
         <v>24</v>
       </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X74" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
@@ -14140,8 +13234,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>1698451200</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -14179,30 +13275,20 @@
       <c r="K75" t="n">
         <v>0.5</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
@@ -14210,10 +13296,8 @@
       <c r="R75" t="n">
         <v>1</v>
       </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S75" t="n">
+        <v>0</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -14221,23 +13305,17 @@
       <c r="U75" t="n">
         <v>1</v>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V75" t="n">
+        <v>5</v>
       </c>
       <c r="W75" t="n">
         <v>12</v>
       </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X75" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>-11</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
@@ -14329,8 +13407,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>1698364800</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -14366,30 +13446,20 @@
       <c r="K76" t="n">
         <v>0.2</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" t="n">
+        <v>9</v>
       </c>
       <c r="Q76" t="n">
         <v>12</v>
@@ -14397,10 +13467,8 @@
       <c r="R76" t="n">
         <v>1</v>
       </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S76" t="n">
+        <v>0</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -14408,23 +13476,17 @@
       <c r="U76" t="n">
         <v>3</v>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V76" t="n">
+        <v>2</v>
       </c>
       <c r="W76" t="n">
         <v>11</v>
       </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
@@ -14516,8 +13578,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>1698192000</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -14553,30 +13617,20 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>8</v>
       </c>
       <c r="Q77" t="n">
         <v>9</v>
@@ -14584,10 +13638,8 @@
       <c r="R77" t="n">
         <v>4</v>
       </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S77" t="n">
+        <v>3</v>
       </c>
       <c r="T77" t="n">
         <v>2</v>
@@ -14595,23 +13647,17 @@
       <c r="U77" t="n">
         <v>4</v>
       </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V77" t="n">
+        <v>2</v>
       </c>
       <c r="W77" t="n">
         <v>11</v>
       </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>12.9</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="X77" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>-19</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
